--- a/Herramientas/datos.xlsx
+++ b/Herramientas/datos.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besugo\Documents\GitHub\ProyectoFinalDAM\Herramientas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3685A4DF-2A73-4296-A36B-56C3E0125543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B323B88-25F8-43DA-89E9-0329951136F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="3630" windowWidth="21600" windowHeight="11295" xr2:uid="{0EFE8304-3447-4074-AEC2-A81AEECB6B06}"/>
+    <workbookView xWindow="3360" yWindow="2175" windowWidth="21600" windowHeight="11295" xr2:uid="{0EFE8304-3447-4074-AEC2-A81AEECB6B06}"/>
   </bookViews>
   <sheets>
     <sheet name="productos" sheetId="1" r:id="rId1"/>
+    <sheet name="ingredientes" sheetId="2" r:id="rId2"/>
+    <sheet name="ingredientes_productos" sheetId="3" r:id="rId3"/>
+    <sheet name="alergenos_ingredientes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>nombre</t>
   </si>
@@ -51,23 +54,203 @@
     <t>categoria</t>
   </si>
   <si>
-    <t>Maxi burger</t>
-  </si>
-  <si>
-    <t>Hamburguesa completa con dos piezas de carne de 250g cada una</t>
-  </si>
-  <si>
     <t>7.5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Burger 3 quesos</t>
+  </si>
+  <si>
+    <t>Hamburguesa completa con una sabrosa pieza de carne de 200g, tres variedades de queso y una rodaja de pepinillo.</t>
+  </si>
+  <si>
+    <t>Para los amantes del queso</t>
+  </si>
+  <si>
+    <t>Coca Cola</t>
+  </si>
+  <si>
+    <t>Refrescante bebida servida con hielo y limón, lista para ser bebida.</t>
+  </si>
+  <si>
+    <t>Un botellín de de Coca-Cola</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>Especial con huevo</t>
+  </si>
+  <si>
+    <t>El bocadillo de la casa, ahora con huevo.</t>
+  </si>
+  <si>
+    <t>El especial de la casa, el mismo, pero con huevo. Disfruta del salado sabor combinado con el dulce de la cebolla caramelizada, ahora con una explosión de huevo.</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>Crujientes de pollo</t>
+  </si>
+  <si>
+    <t>Deliciosas tiras de pollo, rebozadas en una harina sin gluten para todos los consumidores.</t>
+  </si>
+  <si>
+    <t>Tiras de pollo rebozadas.</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una ensalada clásica de la cocina internacional, originaria de México pero popularizada en Estados Unidos, que consiste en lechuga romana fresca y crujiente, aderezada con una salsa César cremosa y sabrosa. </t>
+  </si>
+  <si>
+    <t>Ensalada clásica de lechuga romana con aderezo César, croutons y queso parmesano.</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>idIngrediente</t>
+  </si>
+  <si>
+    <t>idProducto</t>
+  </si>
+  <si>
+    <t>idAlergeno</t>
+  </si>
+  <si>
+    <t>Parmesano</t>
+  </si>
+  <si>
+    <t>Cheddar</t>
+  </si>
+  <si>
+    <t>Queso de cabra</t>
+  </si>
+  <si>
+    <t>Ternera</t>
+  </si>
+  <si>
+    <t>Pollo</t>
+  </si>
+  <si>
+    <t>Jamón</t>
+  </si>
+  <si>
+    <t>Cebolla caramelizada</t>
+  </si>
+  <si>
+    <t>Queso</t>
+  </si>
+  <si>
+    <t>Huevo</t>
+  </si>
+  <si>
+    <t>Picatostes</t>
+  </si>
+  <si>
+    <t>Lechuga</t>
+  </si>
+  <si>
+    <t>Queso italiano duro y granulado, de sabor intenso y salado, elaborado con leche de vaca y madurado durante un período de tiempo. Se utiliza comúnmente rallado o en láminas para agregar sabor a una variedad de platos, como pastas, ensaladas y risottos.</t>
+  </si>
+  <si>
+    <t>Queso de origen británico, caracterizado por su sabor fuerte y picante, y su textura firme y desmenuzable. El cheddar se elabora con leche de vaca y puede variar en sabor dependiendo de su maduración, desde suave y cremoso hasta extra fuerte. Se utiliza en una amplia variedad de platos, desde sándwiches y hamburguesas hasta platos gratinados y aperitivos.</t>
+  </si>
+  <si>
+    <t>Queso elaborado con leche de cabra, que puede variar en sabor y textura dependiendo de su edad y proceso de elaboración. Tiene un sabor distintivo y a menudo se describe como más ácido y terroso que otros quesos, con una textura que puede variar desde suave y cremosa hasta firme y desmenuzable. Se utiliza en ensaladas, platos gratinados, pizzas y como aperitivo.</t>
+  </si>
+  <si>
+    <t>Carne de res, obtenida de vacas jóvenes, que es tierna y sabrosa. Es una fuente importante de proteínas y nutrientes como el hierro y la vitamina B12. Se utiliza en una amplia variedad de platos, incluyendo filetes, hamburguesas, guisos y asados.</t>
+  </si>
+  <si>
+    <t>Carne de ave, obtenida de pollos, que es magra y versátil. Es una excelente fuente de proteínas y nutrientes como el zinc y la vitamina B6. Se utiliza en una variedad de platos, incluyendo asados, guisos, ensaladas, sándwiches y sopas.</t>
+  </si>
+  <si>
+    <t>Carne de cerdo curada, salada y a menudo ahumada, que puede ser consumida cruda o cocida. Hay muchas variedades de jamón, que varían en sabor y textura dependiendo de su método de curado y maduración. Se utiliza en sándwiches, ensaladas, platos de pasta, pizzas y como aperitivo.</t>
+  </si>
+  <si>
+    <t>Cebollas que se cocinan lentamente en aceite o mantequilla y azúcar hasta que se vuelven doradas y dulces. La caramelización resalta el sabor natural de la cebolla y crea una textura suave y dulce. Se utiliza como condimento en una variedad de platos, como hamburguesas, sándwiches, pizzas, ensaladas y platos de carne.</t>
+  </si>
+  <si>
+    <t>Producto lácteo obtenido a partir de la coagulación de la leche, que puede variar en sabor, textura y método de elaboración. Los quesos pueden ser suaves o duros, cremosos o desmenuzables, dulces o salados, y se utilizan en una amplia variedad de platos en todo el mundo.</t>
+  </si>
+  <si>
+    <t>Alimento versátil y nutritivo, obtenido de las aves, que se consume en muchas formas diferentes, incluyendo hervido, frito, revuelto, cocido al horno o como ingrediente en una variedad de platos, como tortillas, salsas, pasteles y postres.</t>
+  </si>
+  <si>
+    <t>Trozos de pan frito o tostado que se utilizan como guarnición o como ingrediente en ensaladas y sopas. Tienen una textura crujiente y un sabor tostado que añade un toque de sabor y textura a los platos.</t>
+  </si>
+  <si>
+    <t>Verdura de hoja verde y crujiente, que se utiliza comúnmente en ensaladas y sándwiches. Es baja en calorías y rica en vitaminas y minerales, como la vitamina A, la vitamina K y el ácido fólico. Hay varios tipos de lechuga, incluyendo la lechuga romana, la lechuga iceberg y la lechuga de hoja.</t>
+  </si>
+  <si>
+    <t>Queso italiano granulado rallado o a rodajas.</t>
+  </si>
+  <si>
+    <t>Queso britanico en lonchas</t>
+  </si>
+  <si>
+    <t>Queso de cabra en rodajas</t>
+  </si>
+  <si>
+    <t>Bola de carne picada.</t>
+  </si>
+  <si>
+    <t>Pechuga de pollo</t>
+  </si>
+  <si>
+    <t>Cerdo curado en lonchas</t>
+  </si>
+  <si>
+    <t>Dulce y sabrosa</t>
+  </si>
+  <si>
+    <t>Queso en lonchas</t>
+  </si>
+  <si>
+    <t>Sale de la gallina</t>
+  </si>
+  <si>
+    <t>Pan frito crujiente</t>
+  </si>
+  <si>
+    <t>La reina de las verduras.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,8 +276,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520585AC-F910-4466-B779-0ED3CF28776B}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,19 +620,306 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AE7E31-3C97-4073-9BEF-78D728922286}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22441CF5-6897-4364-BFCD-B4B7E62C1ED3}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D5C19B-84DD-4A88-9126-CC199A37115C}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Herramientas/datos.xlsx
+++ b/Herramientas/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besugo\Documents\GitHub\ProyectoFinalDAM\Herramientas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B323B88-25F8-43DA-89E9-0329951136F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9F1CD2-0727-4A10-B5C6-3633FB50A8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2175" windowWidth="21600" windowHeight="11295" xr2:uid="{0EFE8304-3447-4074-AEC2-A81AEECB6B06}"/>
+    <workbookView xWindow="3765" yWindow="1905" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{0EFE8304-3447-4074-AEC2-A81AEECB6B06}"/>
   </bookViews>
   <sheets>
     <sheet name="productos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>nombre</t>
   </si>
@@ -136,105 +136,6 @@
   </si>
   <si>
     <t>idAlergeno</t>
-  </si>
-  <si>
-    <t>Parmesano</t>
-  </si>
-  <si>
-    <t>Cheddar</t>
-  </si>
-  <si>
-    <t>Queso de cabra</t>
-  </si>
-  <si>
-    <t>Ternera</t>
-  </si>
-  <si>
-    <t>Pollo</t>
-  </si>
-  <si>
-    <t>Jamón</t>
-  </si>
-  <si>
-    <t>Cebolla caramelizada</t>
-  </si>
-  <si>
-    <t>Queso</t>
-  </si>
-  <si>
-    <t>Huevo</t>
-  </si>
-  <si>
-    <t>Picatostes</t>
-  </si>
-  <si>
-    <t>Lechuga</t>
-  </si>
-  <si>
-    <t>Queso italiano duro y granulado, de sabor intenso y salado, elaborado con leche de vaca y madurado durante un período de tiempo. Se utiliza comúnmente rallado o en láminas para agregar sabor a una variedad de platos, como pastas, ensaladas y risottos.</t>
-  </si>
-  <si>
-    <t>Queso de origen británico, caracterizado por su sabor fuerte y picante, y su textura firme y desmenuzable. El cheddar se elabora con leche de vaca y puede variar en sabor dependiendo de su maduración, desde suave y cremoso hasta extra fuerte. Se utiliza en una amplia variedad de platos, desde sándwiches y hamburguesas hasta platos gratinados y aperitivos.</t>
-  </si>
-  <si>
-    <t>Queso elaborado con leche de cabra, que puede variar en sabor y textura dependiendo de su edad y proceso de elaboración. Tiene un sabor distintivo y a menudo se describe como más ácido y terroso que otros quesos, con una textura que puede variar desde suave y cremosa hasta firme y desmenuzable. Se utiliza en ensaladas, platos gratinados, pizzas y como aperitivo.</t>
-  </si>
-  <si>
-    <t>Carne de res, obtenida de vacas jóvenes, que es tierna y sabrosa. Es una fuente importante de proteínas y nutrientes como el hierro y la vitamina B12. Se utiliza en una amplia variedad de platos, incluyendo filetes, hamburguesas, guisos y asados.</t>
-  </si>
-  <si>
-    <t>Carne de ave, obtenida de pollos, que es magra y versátil. Es una excelente fuente de proteínas y nutrientes como el zinc y la vitamina B6. Se utiliza en una variedad de platos, incluyendo asados, guisos, ensaladas, sándwiches y sopas.</t>
-  </si>
-  <si>
-    <t>Carne de cerdo curada, salada y a menudo ahumada, que puede ser consumida cruda o cocida. Hay muchas variedades de jamón, que varían en sabor y textura dependiendo de su método de curado y maduración. Se utiliza en sándwiches, ensaladas, platos de pasta, pizzas y como aperitivo.</t>
-  </si>
-  <si>
-    <t>Cebollas que se cocinan lentamente en aceite o mantequilla y azúcar hasta que se vuelven doradas y dulces. La caramelización resalta el sabor natural de la cebolla y crea una textura suave y dulce. Se utiliza como condimento en una variedad de platos, como hamburguesas, sándwiches, pizzas, ensaladas y platos de carne.</t>
-  </si>
-  <si>
-    <t>Producto lácteo obtenido a partir de la coagulación de la leche, que puede variar en sabor, textura y método de elaboración. Los quesos pueden ser suaves o duros, cremosos o desmenuzables, dulces o salados, y se utilizan en una amplia variedad de platos en todo el mundo.</t>
-  </si>
-  <si>
-    <t>Alimento versátil y nutritivo, obtenido de las aves, que se consume en muchas formas diferentes, incluyendo hervido, frito, revuelto, cocido al horno o como ingrediente en una variedad de platos, como tortillas, salsas, pasteles y postres.</t>
-  </si>
-  <si>
-    <t>Trozos de pan frito o tostado que se utilizan como guarnición o como ingrediente en ensaladas y sopas. Tienen una textura crujiente y un sabor tostado que añade un toque de sabor y textura a los platos.</t>
-  </si>
-  <si>
-    <t>Verdura de hoja verde y crujiente, que se utiliza comúnmente en ensaladas y sándwiches. Es baja en calorías y rica en vitaminas y minerales, como la vitamina A, la vitamina K y el ácido fólico. Hay varios tipos de lechuga, incluyendo la lechuga romana, la lechuga iceberg y la lechuga de hoja.</t>
-  </si>
-  <si>
-    <t>Queso italiano granulado rallado o a rodajas.</t>
-  </si>
-  <si>
-    <t>Queso britanico en lonchas</t>
-  </si>
-  <si>
-    <t>Queso de cabra en rodajas</t>
-  </si>
-  <si>
-    <t>Bola de carne picada.</t>
-  </si>
-  <si>
-    <t>Pechuga de pollo</t>
-  </si>
-  <si>
-    <t>Cerdo curado en lonchas</t>
-  </si>
-  <si>
-    <t>Dulce y sabrosa</t>
-  </si>
-  <si>
-    <t>Queso en lonchas</t>
-  </si>
-  <si>
-    <t>Sale de la gallina</t>
-  </si>
-  <si>
-    <t>Pan frito crujiente</t>
-  </si>
-  <si>
-    <t>La reina de las verduras.</t>
   </si>
 </sst>
 </file>
@@ -595,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520585AC-F910-4466-B779-0ED3CF28776B}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,10 +637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AE7E31-3C97-4073-9BEF-78D728922286}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,127 +654,6 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
